--- a/タスク分け拓実.xlsx
+++ b/タスク分け拓実.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\OneDrive - ooharastudent\デスクトップ\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\OneDrive - ooharastudent\デスクトップ\PUPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EB4FAF-D3BB-478D-8666-35A59FF43F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4989DC23-6CA4-48C1-9A52-61CB7439B7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51BB9AC5-9A20-4E91-944C-F13BA2807514}"/>
+    <workbookView xWindow="3315" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{51BB9AC5-9A20-4E91-944C-F13BA2807514}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -448,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E02B71-9B36-4C61-BACD-A417480519E8}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -483,4 +484,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCDBE3B-47D5-4B1A-A6AC-1C9AE05A5320}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/タスク分け拓実.xlsx
+++ b/タスク分け拓実.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\OneDrive - ooharastudent\デスクトップ\PUPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4989DC23-6CA4-48C1-9A52-61CB7439B7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD4951F-0827-474D-88FA-6ABC35078055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{51BB9AC5-9A20-4E91-944C-F13BA2807514}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{51BB9AC5-9A20-4E91-944C-F13BA2807514}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>拓実</t>
     <rPh sb="0" eb="2">
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>ミニマップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -488,13 +492,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCDBE3B-47D5-4B1A-A6AC-1C9AE05A5320}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AN1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:AN1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:40" x14ac:dyDescent="0.4">
+      <c r="B1">
+        <v>24</v>
+      </c>
+      <c r="C1">
+        <v>25</v>
+      </c>
+      <c r="D1">
+        <v>26</v>
+      </c>
+      <c r="E1">
+        <v>27</v>
+      </c>
+      <c r="F1">
+        <v>28</v>
+      </c>
+      <c r="G1">
+        <v>29</v>
+      </c>
+      <c r="H1">
+        <v>30</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>3</v>
+      </c>
+      <c r="N1">
+        <v>4</v>
+      </c>
+      <c r="O1">
+        <v>5</v>
+      </c>
+      <c r="P1">
+        <v>6</v>
+      </c>
+      <c r="Q1">
+        <v>7</v>
+      </c>
+      <c r="R1">
+        <v>8</v>
+      </c>
+      <c r="S1">
+        <v>9</v>
+      </c>
+      <c r="T1">
+        <v>10</v>
+      </c>
+      <c r="U1">
+        <v>11</v>
+      </c>
+      <c r="V1">
+        <v>12</v>
+      </c>
+      <c r="W1">
+        <v>13</v>
+      </c>
+      <c r="X1">
+        <v>14</v>
+      </c>
+      <c r="Y1">
+        <v>15</v>
+      </c>
+      <c r="Z1">
+        <v>16</v>
+      </c>
+      <c r="AA1">
+        <v>17</v>
+      </c>
+      <c r="AB1">
+        <v>18</v>
+      </c>
+      <c r="AC1">
+        <v>19</v>
+      </c>
+      <c r="AD1">
+        <v>20</v>
+      </c>
+      <c r="AE1">
+        <v>21</v>
+      </c>
+      <c r="AF1">
+        <v>22</v>
+      </c>
+      <c r="AG1">
+        <v>23</v>
+      </c>
+      <c r="AH1">
+        <v>24</v>
+      </c>
+      <c r="AI1">
+        <v>25</v>
+      </c>
+      <c r="AJ1">
+        <v>26</v>
+      </c>
+      <c r="AK1">
+        <v>27</v>
+      </c>
+      <c r="AL1">
+        <v>28</v>
+      </c>
+      <c r="AM1">
+        <v>29</v>
+      </c>
+      <c r="AN1">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>